--- a/daat_20220113_20220118.xlsx
+++ b/daat_20220113_20220118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\tnakamoto\repo\shockwave-from-tonga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E69EC5-F00F-4FF7-9DF2-237C7F1C4991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE936912-E749-44D6-A191-40184D905780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2D7B16D-2594-4A62-A4B6-0A75F048641E}"/>
   </bookViews>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,7 +4145,7 @@
   <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G289" activeCellId="1" sqref="B3:B289 G3:G289"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/daat_20220113_20220118.xlsx
+++ b/daat_20220113_20220118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\tnakamoto\repo\shockwave-from-tonga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE936912-E749-44D6-A191-40184D905780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8615763-99C4-4AA5-BD8E-604F2E7EAC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2D7B16D-2594-4A62-A4B6-0A75F048641E}"/>
   </bookViews>
@@ -2994,7 +2994,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>at 22:30 - 23:00 January 16, 2022 (UTC)</a:t>
+            <a:t>at 22:30 - 23:30 January 16, 2022 (UTC)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
